--- a/hu_statistics1.xlsx
+++ b/hu_statistics1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="101">
   <si>
     <t>filename</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,13 +353,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,28 +820,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,118 +853,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6763,6 +6762,192 @@
         <v>90.7142857142857</v>
       </c>
     </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77">
+        <f>MAX(B2:B75)</f>
+        <v>-59</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:W77" si="1">MAX(C2:C75)</f>
+        <v>593</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>-194</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>3071</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>3071</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>1626</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>1252</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>-52</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="1"/>
+        <v>869</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="1"/>
+        <v>-51</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="1"/>
+        <v>3071</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="1"/>
+        <v>-146</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>3071</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="1"/>
+        <v>-731</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f>MIN(B2:B75)</f>
+        <v>-659</v>
+      </c>
+      <c r="C78">
+        <f>MIN(C2:C75)</f>
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78:W78" si="2">MIN(D2:D75)</f>
+        <v>-1000</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>-688</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>588</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>-116</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>-134</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="2"/>
+        <v>-131</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="2"/>
+        <v>-416</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="2"/>
+        <v>-163</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
